--- a/추가피처데이터/투자자별매매동향(수급)/302440.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/302440.xlsx
@@ -1613,43 +1613,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1881,58 +1881,58 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>2983</v>
+        <v>238953</v>
       </c>
       <c r="C6" s="7">
-        <v>2458</v>
+        <v>195919</v>
       </c>
       <c r="D6" s="9">
-        <v>525</v>
+        <v>43035</v>
       </c>
       <c r="E6" s="11">
-        <v>6895</v>
+        <v>553850</v>
       </c>
       <c r="F6" s="13">
-        <v>7813</v>
+        <v>628352</v>
       </c>
       <c r="G6" s="15">
-        <v>-918</v>
+        <v>-74502</v>
       </c>
       <c r="H6" s="17">
-        <v>1148</v>
+        <v>91759</v>
       </c>
       <c r="I6" s="19">
-        <v>741</v>
+        <v>59037</v>
       </c>
       <c r="J6" s="21">
-        <v>407</v>
+        <v>32722</v>
       </c>
       <c r="K6" s="23">
-        <v>337</v>
+        <v>26783</v>
       </c>
       <c r="L6" s="25">
-        <v>296</v>
+        <v>23666</v>
       </c>
       <c r="M6" s="27">
-        <v>41</v>
+        <v>3117</v>
       </c>
       <c r="N6" s="29">
-        <v>20</v>
+        <v>1552</v>
       </c>
       <c r="O6" s="31">
-        <v>19</v>
+        <v>1563</v>
       </c>
       <c r="P6" s="33">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="Q6" s="35">
-        <v>176</v>
+        <v>14208</v>
       </c>
       <c r="R6" s="37">
-        <v>98</v>
+        <v>7815</v>
       </c>
       <c r="S6" s="39">
-        <v>78</v>
+        <v>6394</v>
       </c>
       <c r="T6" s="41">
         <v>0</v>
@@ -1944,31 +1944,31 @@
         <v>0</v>
       </c>
       <c r="W6" s="47">
-        <v>5</v>
+        <v>398</v>
       </c>
       <c r="X6" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6" s="51">
-        <v>5</v>
+        <v>397</v>
       </c>
       <c r="Z6" s="53">
-        <v>369</v>
+        <v>29640</v>
       </c>
       <c r="AA6" s="55">
-        <v>171</v>
+        <v>13529</v>
       </c>
       <c r="AB6" s="57">
-        <v>199</v>
+        <v>16112</v>
       </c>
       <c r="AC6" s="59">
-        <v>241</v>
+        <v>19177</v>
       </c>
       <c r="AD6" s="61">
-        <v>156</v>
+        <v>12462</v>
       </c>
       <c r="AE6" s="63">
-        <v>85</v>
+        <v>6715</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>36</v>
+        <v>2840</v>
       </c>
       <c r="AJ6" s="73">
-        <v>51</v>
+        <v>4095</v>
       </c>
       <c r="AK6" s="75">
-        <v>-15</v>
+        <v>-1256</v>
       </c>
       <c r="AL6" s="77">
-        <v>11062</v>
+        <v>887403</v>
       </c>
     </row>
     <row r="7">
@@ -1997,94 +1997,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>1988</v>
+        <v>151671</v>
       </c>
       <c r="C7" s="7">
-        <v>2384</v>
+        <v>182348</v>
       </c>
       <c r="D7" s="9">
-        <v>-396</v>
+        <v>-30677</v>
       </c>
       <c r="E7" s="11">
-        <v>6793</v>
+        <v>521732</v>
       </c>
       <c r="F7" s="13">
-        <v>6706</v>
+        <v>516067</v>
       </c>
       <c r="G7" s="15">
-        <v>87</v>
+        <v>5665</v>
       </c>
       <c r="H7" s="17">
-        <v>816</v>
+        <v>63198</v>
       </c>
       <c r="I7" s="19">
-        <v>527</v>
+        <v>39748</v>
       </c>
       <c r="J7" s="21">
-        <v>289</v>
+        <v>23449</v>
       </c>
       <c r="K7" s="23">
-        <v>449</v>
+        <v>34918</v>
       </c>
       <c r="L7" s="25">
-        <v>260</v>
+        <v>19573</v>
       </c>
       <c r="M7" s="27">
-        <v>189</v>
+        <v>15344</v>
       </c>
       <c r="N7" s="29">
-        <v>31</v>
+        <v>2374</v>
       </c>
       <c r="O7" s="31">
-        <v>41</v>
+        <v>3072</v>
       </c>
       <c r="P7" s="33">
-        <v>-10</v>
+        <v>-699</v>
       </c>
       <c r="Q7" s="35">
-        <v>73</v>
+        <v>5565</v>
       </c>
       <c r="R7" s="37">
-        <v>61</v>
+        <v>4576</v>
       </c>
       <c r="S7" s="39">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="T7" s="41">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="U7" s="43">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="V7" s="45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" s="49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y7" s="51">
         <v>0</v>
       </c>
       <c r="Z7" s="53">
-        <v>110</v>
+        <v>8436</v>
       </c>
       <c r="AA7" s="55">
-        <v>125</v>
+        <v>9498</v>
       </c>
       <c r="AB7" s="57">
-        <v>-16</v>
+        <v>-1062</v>
       </c>
       <c r="AC7" s="59">
-        <v>152</v>
+        <v>11826</v>
       </c>
       <c r="AD7" s="61">
-        <v>38</v>
+        <v>2952</v>
       </c>
       <c r="AE7" s="63">
-        <v>114</v>
+        <v>8874</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2096,16 +2096,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>70</v>
+        <v>5444</v>
       </c>
       <c r="AJ7" s="73">
-        <v>50</v>
+        <v>3882</v>
       </c>
       <c r="AK7" s="75">
-        <v>20</v>
+        <v>1563</v>
       </c>
       <c r="AL7" s="77">
-        <v>9667</v>
+        <v>742046</v>
       </c>
     </row>
     <row r="8">
@@ -2113,58 +2113,58 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>1718</v>
+        <v>120843</v>
       </c>
       <c r="C8" s="7">
-        <v>1460</v>
+        <v>101856</v>
       </c>
       <c r="D8" s="9">
-        <v>258</v>
+        <v>18987</v>
       </c>
       <c r="E8" s="11">
-        <v>3192</v>
+        <v>222884</v>
       </c>
       <c r="F8" s="13">
-        <v>3631</v>
+        <v>255023</v>
       </c>
       <c r="G8" s="15">
-        <v>-438</v>
+        <v>-32139</v>
       </c>
       <c r="H8" s="17">
-        <v>612</v>
+        <v>43483</v>
       </c>
       <c r="I8" s="19">
-        <v>421</v>
+        <v>29510</v>
       </c>
       <c r="J8" s="21">
-        <v>190</v>
+        <v>13974</v>
       </c>
       <c r="K8" s="23">
-        <v>300</v>
+        <v>21217</v>
       </c>
       <c r="L8" s="25">
-        <v>237</v>
+        <v>16584</v>
       </c>
       <c r="M8" s="27">
-        <v>63</v>
+        <v>4634</v>
       </c>
       <c r="N8" s="29">
-        <v>33</v>
+        <v>2380</v>
       </c>
       <c r="O8" s="31">
-        <v>16</v>
+        <v>1115</v>
       </c>
       <c r="P8" s="33">
-        <v>18</v>
+        <v>1265</v>
       </c>
       <c r="Q8" s="35">
-        <v>142</v>
+        <v>10231</v>
       </c>
       <c r="R8" s="37">
-        <v>39</v>
+        <v>2689</v>
       </c>
       <c r="S8" s="39">
-        <v>103</v>
+        <v>7542</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
@@ -2176,31 +2176,31 @@
         <v>0</v>
       </c>
       <c r="W8" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="Z8" s="53">
-        <v>98</v>
+        <v>6980</v>
       </c>
       <c r="AA8" s="55">
-        <v>73</v>
+        <v>5151</v>
       </c>
       <c r="AB8" s="57">
-        <v>25</v>
+        <v>1829</v>
       </c>
       <c r="AC8" s="59">
-        <v>37</v>
+        <v>2672</v>
       </c>
       <c r="AD8" s="61">
-        <v>56</v>
+        <v>3956</v>
       </c>
       <c r="AE8" s="63">
-        <v>-19</v>
+        <v>-1284</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2212,16 +2212,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>44</v>
+        <v>3063</v>
       </c>
       <c r="AJ8" s="73">
-        <v>55</v>
+        <v>3884</v>
       </c>
       <c r="AK8" s="75">
-        <v>-10</v>
+        <v>-821</v>
       </c>
       <c r="AL8" s="77">
-        <v>5566</v>
+        <v>390273</v>
       </c>
     </row>
     <row r="9">
@@ -2229,94 +2229,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>970</v>
+        <v>72460</v>
       </c>
       <c r="C9" s="7">
-        <v>1401</v>
+        <v>102978</v>
       </c>
       <c r="D9" s="9">
-        <v>-430</v>
+        <v>-30519</v>
       </c>
       <c r="E9" s="11">
-        <v>3070</v>
+        <v>226335</v>
       </c>
       <c r="F9" s="13">
-        <v>2499</v>
+        <v>185389</v>
       </c>
       <c r="G9" s="15">
-        <v>572</v>
+        <v>40945</v>
       </c>
       <c r="H9" s="17">
-        <v>291</v>
+        <v>21711</v>
       </c>
       <c r="I9" s="19">
-        <v>445</v>
+        <v>32997</v>
       </c>
       <c r="J9" s="21">
-        <v>-153</v>
+        <v>-11286</v>
       </c>
       <c r="K9" s="23">
-        <v>188</v>
+        <v>13956</v>
       </c>
       <c r="L9" s="25">
-        <v>264</v>
+        <v>19758</v>
       </c>
       <c r="M9" s="27">
-        <v>-76</v>
+        <v>-5803</v>
       </c>
       <c r="N9" s="29">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="O9" s="31">
-        <v>14</v>
+        <v>1044</v>
       </c>
       <c r="P9" s="33">
-        <v>-11</v>
+        <v>-782</v>
       </c>
       <c r="Q9" s="35">
-        <v>11</v>
+        <v>802</v>
       </c>
       <c r="R9" s="37">
-        <v>26</v>
+        <v>1905</v>
       </c>
       <c r="S9" s="39">
-        <v>-15</v>
+        <v>-1103</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
       </c>
       <c r="U9" s="43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V9" s="45">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="W9" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9" s="49">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="Y9" s="51">
-        <v>-1</v>
+        <v>-59</v>
       </c>
       <c r="Z9" s="53">
-        <v>53</v>
+        <v>3997</v>
       </c>
       <c r="AA9" s="55">
-        <v>67</v>
+        <v>4911</v>
       </c>
       <c r="AB9" s="57">
-        <v>-14</v>
+        <v>-913</v>
       </c>
       <c r="AC9" s="59">
-        <v>36</v>
+        <v>2691</v>
       </c>
       <c r="AD9" s="61">
-        <v>73</v>
+        <v>5305</v>
       </c>
       <c r="AE9" s="63">
-        <v>-37</v>
+        <v>-2614</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2328,16 +2328,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>23</v>
+        <v>1656</v>
       </c>
       <c r="AJ9" s="73">
-        <v>11</v>
+        <v>796</v>
       </c>
       <c r="AK9" s="75">
-        <v>12</v>
+        <v>859</v>
       </c>
       <c r="AL9" s="77">
-        <v>4355</v>
+        <v>322161</v>
       </c>
     </row>
     <row r="10">
@@ -2345,94 +2345,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1340</v>
+        <v>102684</v>
       </c>
       <c r="C10" s="7">
-        <v>1306</v>
+        <v>99814</v>
       </c>
       <c r="D10" s="9">
-        <v>33</v>
+        <v>2871</v>
       </c>
       <c r="E10" s="11">
-        <v>2804</v>
+        <v>214272</v>
       </c>
       <c r="F10" s="13">
-        <v>2645</v>
+        <v>202974</v>
       </c>
       <c r="G10" s="15">
-        <v>159</v>
+        <v>11298</v>
       </c>
       <c r="H10" s="17">
-        <v>483</v>
+        <v>37208</v>
       </c>
       <c r="I10" s="19">
-        <v>682</v>
+        <v>51878</v>
       </c>
       <c r="J10" s="21">
-        <v>-198</v>
+        <v>-14670</v>
       </c>
       <c r="K10" s="23">
-        <v>255</v>
+        <v>19720</v>
       </c>
       <c r="L10" s="25">
-        <v>347</v>
+        <v>26559</v>
       </c>
       <c r="M10" s="27">
-        <v>-92</v>
+        <v>-6839</v>
       </c>
       <c r="N10" s="29">
-        <v>31</v>
+        <v>2379</v>
       </c>
       <c r="O10" s="31">
-        <v>39</v>
+        <v>2879</v>
       </c>
       <c r="P10" s="33">
-        <v>-7</v>
+        <v>-500</v>
       </c>
       <c r="Q10" s="35">
-        <v>40</v>
+        <v>3040</v>
       </c>
       <c r="R10" s="37">
-        <v>34</v>
+        <v>2545</v>
       </c>
       <c r="S10" s="39">
-        <v>6</v>
+        <v>495</v>
       </c>
       <c r="T10" s="41">
         <v>0</v>
       </c>
       <c r="U10" s="43">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V10" s="45">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="W10" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X10" s="49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y10" s="51">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="Z10" s="53">
-        <v>74</v>
+        <v>5687</v>
       </c>
       <c r="AA10" s="55">
-        <v>72</v>
+        <v>5474</v>
       </c>
       <c r="AB10" s="57">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="AC10" s="59">
-        <v>83</v>
+        <v>6379</v>
       </c>
       <c r="AD10" s="61">
-        <v>190</v>
+        <v>14386</v>
       </c>
       <c r="AE10" s="63">
-        <v>-107</v>
+        <v>-8007</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>17</v>
+        <v>1348</v>
       </c>
       <c r="AJ10" s="73">
-        <v>11</v>
+        <v>846</v>
       </c>
       <c r="AK10" s="75">
-        <v>6</v>
+        <v>502</v>
       </c>
       <c r="AL10" s="77">
-        <v>4644</v>
+        <v>355512</v>
       </c>
     </row>
     <row r="11">
@@ -2461,94 +2461,94 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>1162</v>
+        <v>96922</v>
       </c>
       <c r="C11" s="7">
-        <v>1213</v>
+        <v>100493</v>
       </c>
       <c r="D11" s="9">
-        <v>-51</v>
+        <v>-3572</v>
       </c>
       <c r="E11" s="11">
-        <v>3100</v>
+        <v>258243</v>
       </c>
       <c r="F11" s="13">
-        <v>3054</v>
+        <v>256043</v>
       </c>
       <c r="G11" s="15">
-        <v>46</v>
+        <v>2200</v>
       </c>
       <c r="H11" s="17">
-        <v>543</v>
+        <v>45230</v>
       </c>
       <c r="I11" s="19">
-        <v>529</v>
+        <v>43258</v>
       </c>
       <c r="J11" s="21">
-        <v>13</v>
+        <v>1972</v>
       </c>
       <c r="K11" s="23">
-        <v>215</v>
+        <v>17749</v>
       </c>
       <c r="L11" s="25">
-        <v>250</v>
+        <v>20444</v>
       </c>
       <c r="M11" s="27">
-        <v>-35</v>
+        <v>-2695</v>
       </c>
       <c r="N11" s="29">
-        <v>21</v>
+        <v>1766</v>
       </c>
       <c r="O11" s="31">
-        <v>14</v>
+        <v>1132</v>
       </c>
       <c r="P11" s="33">
-        <v>7</v>
+        <v>634</v>
       </c>
       <c r="Q11" s="35">
-        <v>67</v>
+        <v>5629</v>
       </c>
       <c r="R11" s="37">
-        <v>36</v>
+        <v>2970</v>
       </c>
       <c r="S11" s="39">
-        <v>31</v>
+        <v>2659</v>
       </c>
       <c r="T11" s="41">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U11" s="43">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V11" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W11" s="47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X11" s="49">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="51">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="Z11" s="53">
-        <v>103</v>
+        <v>8591</v>
       </c>
       <c r="AA11" s="55">
-        <v>68</v>
+        <v>5589</v>
       </c>
       <c r="AB11" s="57">
-        <v>35</v>
+        <v>3002</v>
       </c>
       <c r="AC11" s="59">
-        <v>137</v>
+        <v>11444</v>
       </c>
       <c r="AD11" s="61">
-        <v>160</v>
+        <v>13070</v>
       </c>
       <c r="AE11" s="63">
-        <v>-23</v>
+        <v>-1626</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>19</v>
+        <v>1541</v>
       </c>
       <c r="AJ11" s="73">
-        <v>26</v>
+        <v>2142</v>
       </c>
       <c r="AK11" s="75">
-        <v>-7</v>
+        <v>-600</v>
       </c>
       <c r="AL11" s="77">
-        <v>4823</v>
+        <v>401936</v>
       </c>
     </row>
     <row r="12">
@@ -2577,94 +2577,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>2694</v>
+        <v>232802</v>
       </c>
       <c r="C12" s="7">
-        <v>2356</v>
+        <v>204849</v>
       </c>
       <c r="D12" s="9">
-        <v>338</v>
+        <v>27953</v>
       </c>
       <c r="E12" s="11">
-        <v>6093</v>
+        <v>529811</v>
       </c>
       <c r="F12" s="13">
-        <v>6436</v>
+        <v>559262</v>
       </c>
       <c r="G12" s="15">
-        <v>-343</v>
+        <v>-29451</v>
       </c>
       <c r="H12" s="17">
-        <v>846</v>
+        <v>73514</v>
       </c>
       <c r="I12" s="19">
-        <v>846</v>
+        <v>72457</v>
       </c>
       <c r="J12" s="21">
-        <v>0</v>
+        <v>1058</v>
       </c>
       <c r="K12" s="23">
-        <v>331</v>
+        <v>28759</v>
       </c>
       <c r="L12" s="25">
-        <v>356</v>
+        <v>30235</v>
       </c>
       <c r="M12" s="27">
-        <v>-24</v>
+        <v>-1476</v>
       </c>
       <c r="N12" s="29">
-        <v>44</v>
+        <v>3929</v>
       </c>
       <c r="O12" s="31">
-        <v>23</v>
+        <v>1889</v>
       </c>
       <c r="P12" s="33">
-        <v>22</v>
+        <v>2040</v>
       </c>
       <c r="Q12" s="35">
-        <v>105</v>
+        <v>9092</v>
       </c>
       <c r="R12" s="37">
-        <v>37</v>
+        <v>3259</v>
       </c>
       <c r="S12" s="39">
-        <v>68</v>
+        <v>5832</v>
       </c>
       <c r="T12" s="41">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="U12" s="43">
         <v>0</v>
       </c>
       <c r="V12" s="45">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="W12" s="47">
-        <v>6</v>
+        <v>514</v>
       </c>
       <c r="X12" s="49">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y12" s="51">
-        <v>6</v>
+        <v>498</v>
       </c>
       <c r="Z12" s="53">
-        <v>158</v>
+        <v>13787</v>
       </c>
       <c r="AA12" s="55">
-        <v>190</v>
+        <v>16301</v>
       </c>
       <c r="AB12" s="57">
-        <v>-32</v>
+        <v>-2514</v>
       </c>
       <c r="AC12" s="59">
-        <v>201</v>
+        <v>17382</v>
       </c>
       <c r="AD12" s="61">
-        <v>240</v>
+        <v>20755</v>
       </c>
       <c r="AE12" s="63">
-        <v>-39</v>
+        <v>-3373</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2676,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>79</v>
+        <v>6523</v>
       </c>
       <c r="AJ12" s="73">
-        <v>73</v>
+        <v>6082</v>
       </c>
       <c r="AK12" s="75">
-        <v>5</v>
+        <v>441</v>
       </c>
       <c r="AL12" s="77">
-        <v>9711</v>
+        <v>842650</v>
       </c>
     </row>
     <row r="13">
@@ -2693,58 +2693,58 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>2281</v>
+        <v>172355</v>
       </c>
       <c r="C13" s="7">
-        <v>2064</v>
+        <v>155700</v>
       </c>
       <c r="D13" s="9">
-        <v>217</v>
+        <v>16655</v>
       </c>
       <c r="E13" s="11">
-        <v>4813</v>
+        <v>364567</v>
       </c>
       <c r="F13" s="13">
-        <v>4921</v>
+        <v>371822</v>
       </c>
       <c r="G13" s="15">
-        <v>-109</v>
+        <v>-7255</v>
       </c>
       <c r="H13" s="17">
-        <v>1091</v>
+        <v>81831</v>
       </c>
       <c r="I13" s="19">
-        <v>1203</v>
+        <v>91413</v>
       </c>
       <c r="J13" s="21">
-        <v>-111</v>
+        <v>-9582</v>
       </c>
       <c r="K13" s="23">
-        <v>563</v>
+        <v>42099</v>
       </c>
       <c r="L13" s="25">
-        <v>532</v>
+        <v>40639</v>
       </c>
       <c r="M13" s="27">
-        <v>31</v>
+        <v>1461</v>
       </c>
       <c r="N13" s="29">
-        <v>22</v>
+        <v>1681</v>
       </c>
       <c r="O13" s="31">
-        <v>34</v>
+        <v>2615</v>
       </c>
       <c r="P13" s="33">
-        <v>-12</v>
+        <v>-934</v>
       </c>
       <c r="Q13" s="35">
-        <v>58</v>
+        <v>4329</v>
       </c>
       <c r="R13" s="37">
-        <v>44</v>
+        <v>3356</v>
       </c>
       <c r="S13" s="39">
-        <v>14</v>
+        <v>973</v>
       </c>
       <c r="T13" s="41">
         <v>0</v>
@@ -2756,31 +2756,31 @@
         <v>0</v>
       </c>
       <c r="W13" s="47">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X13" s="49">
-        <v>17</v>
+        <v>1249</v>
       </c>
       <c r="Y13" s="51">
-        <v>-17</v>
+        <v>-1233</v>
       </c>
       <c r="Z13" s="53">
-        <v>175</v>
+        <v>13080</v>
       </c>
       <c r="AA13" s="55">
-        <v>204</v>
+        <v>15414</v>
       </c>
       <c r="AB13" s="57">
-        <v>-29</v>
+        <v>-2334</v>
       </c>
       <c r="AC13" s="59">
-        <v>274</v>
+        <v>20626</v>
       </c>
       <c r="AD13" s="61">
-        <v>371</v>
+        <v>28141</v>
       </c>
       <c r="AE13" s="63">
-        <v>-97</v>
+        <v>-7515</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2792,16 +2792,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>12</v>
+        <v>899</v>
       </c>
       <c r="AJ13" s="73">
-        <v>9</v>
+        <v>717</v>
       </c>
       <c r="AK13" s="75">
-        <v>3</v>
+        <v>182</v>
       </c>
       <c r="AL13" s="77">
-        <v>8197</v>
+        <v>619652</v>
       </c>
     </row>
     <row r="14">
@@ -2809,94 +2809,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>2040</v>
+        <v>195163</v>
       </c>
       <c r="C14" s="7">
-        <v>1977</v>
+        <v>191502</v>
       </c>
       <c r="D14" s="9">
-        <v>63</v>
+        <v>3660</v>
       </c>
       <c r="E14" s="11">
-        <v>4632</v>
+        <v>445800</v>
       </c>
       <c r="F14" s="13">
-        <v>4850</v>
+        <v>464976</v>
       </c>
       <c r="G14" s="15">
-        <v>-219</v>
+        <v>-19175</v>
       </c>
       <c r="H14" s="17">
-        <v>861</v>
+        <v>84336</v>
       </c>
       <c r="I14" s="19">
-        <v>697</v>
+        <v>67806</v>
       </c>
       <c r="J14" s="21">
-        <v>164</v>
+        <v>16530</v>
       </c>
       <c r="K14" s="23">
-        <v>499</v>
+        <v>48763</v>
       </c>
       <c r="L14" s="25">
-        <v>322</v>
+        <v>31308</v>
       </c>
       <c r="M14" s="27">
-        <v>176</v>
+        <v>17455</v>
       </c>
       <c r="N14" s="29">
-        <v>14</v>
+        <v>1423</v>
       </c>
       <c r="O14" s="31">
-        <v>22</v>
+        <v>2065</v>
       </c>
       <c r="P14" s="33">
-        <v>-9</v>
+        <v>-641</v>
       </c>
       <c r="Q14" s="35">
-        <v>132</v>
+        <v>13652</v>
       </c>
       <c r="R14" s="37">
-        <v>55</v>
+        <v>5361</v>
       </c>
       <c r="S14" s="39">
-        <v>77</v>
+        <v>8292</v>
       </c>
       <c r="T14" s="41">
         <v>0</v>
       </c>
       <c r="U14" s="43">
-        <v>3</v>
+        <v>378</v>
       </c>
       <c r="V14" s="45">
-        <v>-3</v>
+        <v>-378</v>
       </c>
       <c r="W14" s="47">
         <v>0</v>
       </c>
       <c r="X14" s="49">
-        <v>14</v>
+        <v>1338</v>
       </c>
       <c r="Y14" s="51">
-        <v>-14</v>
+        <v>-1338</v>
       </c>
       <c r="Z14" s="53">
-        <v>75</v>
+        <v>7425</v>
       </c>
       <c r="AA14" s="55">
-        <v>161</v>
+        <v>16019</v>
       </c>
       <c r="AB14" s="57">
-        <v>-85</v>
+        <v>-8594</v>
       </c>
       <c r="AC14" s="59">
-        <v>141</v>
+        <v>13072</v>
       </c>
       <c r="AD14" s="61">
-        <v>119</v>
+        <v>11337</v>
       </c>
       <c r="AE14" s="63">
-        <v>23</v>
+        <v>1735</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2908,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>12</v>
+        <v>1093</v>
       </c>
       <c r="AJ14" s="73">
-        <v>21</v>
+        <v>2108</v>
       </c>
       <c r="AK14" s="75">
-        <v>-9</v>
+        <v>-1015</v>
       </c>
       <c r="AL14" s="77">
-        <v>7544</v>
+        <v>726392</v>
       </c>
     </row>
     <row r="15">
@@ -2925,58 +2925,58 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>1830</v>
+        <v>222794</v>
       </c>
       <c r="C15" s="7">
-        <v>1944</v>
+        <v>236437</v>
       </c>
       <c r="D15" s="9">
-        <v>-114</v>
+        <v>-13643</v>
       </c>
       <c r="E15" s="11">
-        <v>6806</v>
+        <v>834616</v>
       </c>
       <c r="F15" s="13">
-        <v>6662</v>
+        <v>818821</v>
       </c>
       <c r="G15" s="15">
-        <v>144</v>
+        <v>15794</v>
       </c>
       <c r="H15" s="17">
-        <v>629</v>
+        <v>76888</v>
       </c>
       <c r="I15" s="19">
-        <v>699</v>
+        <v>83962</v>
       </c>
       <c r="J15" s="21">
-        <v>-70</v>
+        <v>-7073</v>
       </c>
       <c r="K15" s="23">
-        <v>345</v>
+        <v>41764</v>
       </c>
       <c r="L15" s="25">
-        <v>421</v>
+        <v>50336</v>
       </c>
       <c r="M15" s="27">
-        <v>-76</v>
+        <v>-8572</v>
       </c>
       <c r="N15" s="29">
-        <v>24</v>
+        <v>2892</v>
       </c>
       <c r="O15" s="31">
-        <v>29</v>
+        <v>3423</v>
       </c>
       <c r="P15" s="33">
-        <v>-5</v>
+        <v>-531</v>
       </c>
       <c r="Q15" s="35">
-        <v>61</v>
+        <v>7740</v>
       </c>
       <c r="R15" s="37">
-        <v>36</v>
+        <v>4351</v>
       </c>
       <c r="S15" s="39">
-        <v>25</v>
+        <v>3389</v>
       </c>
       <c r="T15" s="41">
         <v>0</v>
@@ -2991,28 +2991,28 @@
         <v>0</v>
       </c>
       <c r="X15" s="49">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="Y15" s="51">
-        <v>-1</v>
+        <v>-69</v>
       </c>
       <c r="Z15" s="53">
-        <v>141</v>
+        <v>17249</v>
       </c>
       <c r="AA15" s="55">
-        <v>143</v>
+        <v>17184</v>
       </c>
       <c r="AB15" s="57">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="AC15" s="59">
-        <v>58</v>
+        <v>7244</v>
       </c>
       <c r="AD15" s="61">
-        <v>70</v>
+        <v>8599</v>
       </c>
       <c r="AE15" s="63">
-        <v>-13</v>
+        <v>-1355</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>67</v>
+        <v>8206</v>
       </c>
       <c r="AJ15" s="73">
-        <v>26</v>
+        <v>3284</v>
       </c>
       <c r="AK15" s="75">
-        <v>40</v>
+        <v>4922</v>
       </c>
       <c r="AL15" s="77">
-        <v>9331</v>
+        <v>1142504</v>
       </c>
     </row>
     <row r="16">
@@ -3041,94 +3041,94 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>4937</v>
+        <v>647349</v>
       </c>
       <c r="C16" s="7">
-        <v>5222</v>
+        <v>692748</v>
       </c>
       <c r="D16" s="9">
-        <v>-285</v>
+        <v>-45400</v>
       </c>
       <c r="E16" s="11">
-        <v>25263</v>
+        <v>3386434</v>
       </c>
       <c r="F16" s="13">
-        <v>24875</v>
+        <v>3326852</v>
       </c>
       <c r="G16" s="15">
-        <v>388</v>
+        <v>59583</v>
       </c>
       <c r="H16" s="17">
-        <v>883</v>
+        <v>115729</v>
       </c>
       <c r="I16" s="19">
-        <v>973</v>
+        <v>127905</v>
       </c>
       <c r="J16" s="21">
-        <v>-90</v>
+        <v>-12175</v>
       </c>
       <c r="K16" s="23">
-        <v>392</v>
+        <v>51167</v>
       </c>
       <c r="L16" s="25">
-        <v>493</v>
+        <v>64429</v>
       </c>
       <c r="M16" s="27">
-        <v>-101</v>
+        <v>-13262</v>
       </c>
       <c r="N16" s="29">
-        <v>41</v>
+        <v>5413</v>
       </c>
       <c r="O16" s="31">
-        <v>36</v>
+        <v>4801</v>
       </c>
       <c r="P16" s="33">
-        <v>4</v>
+        <v>612</v>
       </c>
       <c r="Q16" s="35">
-        <v>126</v>
+        <v>16523</v>
       </c>
       <c r="R16" s="37">
-        <v>101</v>
+        <v>13525</v>
       </c>
       <c r="S16" s="39">
-        <v>25</v>
+        <v>2998</v>
       </c>
       <c r="T16" s="41">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="U16" s="43">
         <v>0</v>
       </c>
       <c r="V16" s="45">
-        <v>4</v>
+        <v>535</v>
       </c>
       <c r="W16" s="47">
-        <v>4</v>
+        <v>423</v>
       </c>
       <c r="X16" s="49">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="Y16" s="51">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="Z16" s="53">
-        <v>213</v>
+        <v>28420</v>
       </c>
       <c r="AA16" s="55">
-        <v>149</v>
+        <v>19072</v>
       </c>
       <c r="AB16" s="57">
-        <v>64</v>
+        <v>9348</v>
       </c>
       <c r="AC16" s="59">
-        <v>104</v>
+        <v>13250</v>
       </c>
       <c r="AD16" s="61">
-        <v>192</v>
+        <v>25979</v>
       </c>
       <c r="AE16" s="63">
-        <v>-89</v>
+        <v>-12729</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3140,16 +3140,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>131</v>
+        <v>17258</v>
       </c>
       <c r="AJ16" s="73">
-        <v>144</v>
+        <v>19266</v>
       </c>
       <c r="AK16" s="75">
-        <v>-13</v>
+        <v>-2008</v>
       </c>
       <c r="AL16" s="77">
-        <v>31214</v>
+        <v>4166771</v>
       </c>
     </row>
     <row r="17">
@@ -3157,58 +3157,58 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>2156</v>
+        <v>234642</v>
       </c>
       <c r="C17" s="7">
-        <v>2672</v>
+        <v>297188</v>
       </c>
       <c r="D17" s="9">
-        <v>-516</v>
+        <v>-62545</v>
       </c>
       <c r="E17" s="11">
-        <v>6790</v>
+        <v>752047</v>
       </c>
       <c r="F17" s="13">
-        <v>5896</v>
+        <v>645423</v>
       </c>
       <c r="G17" s="15">
-        <v>894</v>
+        <v>106625</v>
       </c>
       <c r="H17" s="17">
-        <v>425</v>
+        <v>46419</v>
       </c>
       <c r="I17" s="19">
-        <v>807</v>
+        <v>90912</v>
       </c>
       <c r="J17" s="21">
-        <v>-381</v>
+        <v>-44493</v>
       </c>
       <c r="K17" s="23">
-        <v>238</v>
+        <v>25684</v>
       </c>
       <c r="L17" s="25">
-        <v>364</v>
+        <v>40671</v>
       </c>
       <c r="M17" s="27">
-        <v>-126</v>
+        <v>-14987</v>
       </c>
       <c r="N17" s="29">
-        <v>10</v>
+        <v>1071</v>
       </c>
       <c r="O17" s="31">
-        <v>27</v>
+        <v>3057</v>
       </c>
       <c r="P17" s="33">
-        <v>-17</v>
+        <v>-1986</v>
       </c>
       <c r="Q17" s="35">
-        <v>34</v>
+        <v>3754</v>
       </c>
       <c r="R17" s="37">
-        <v>41</v>
+        <v>4816</v>
       </c>
       <c r="S17" s="39">
-        <v>-7</v>
+        <v>-1062</v>
       </c>
       <c r="T17" s="41">
         <v>0</v>
@@ -3220,31 +3220,31 @@
         <v>0</v>
       </c>
       <c r="W17" s="47">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X17" s="49">
-        <v>2</v>
+        <v>232</v>
       </c>
       <c r="Y17" s="51">
-        <v>-2</v>
+        <v>-215</v>
       </c>
       <c r="Z17" s="53">
-        <v>67</v>
+        <v>7693</v>
       </c>
       <c r="AA17" s="55">
-        <v>228</v>
+        <v>25551</v>
       </c>
       <c r="AB17" s="57">
-        <v>-161</v>
+        <v>-17858</v>
       </c>
       <c r="AC17" s="59">
-        <v>76</v>
+        <v>8200</v>
       </c>
       <c r="AD17" s="61">
-        <v>144</v>
+        <v>16584</v>
       </c>
       <c r="AE17" s="63">
-        <v>-68</v>
+        <v>-8384</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3256,16 +3256,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>40</v>
+        <v>4472</v>
       </c>
       <c r="AJ17" s="73">
-        <v>37</v>
+        <v>4058</v>
       </c>
       <c r="AK17" s="75">
-        <v>3</v>
+        <v>414</v>
       </c>
       <c r="AL17" s="77">
-        <v>9411</v>
+        <v>1037580</v>
       </c>
     </row>
     <row r="18">
@@ -3273,94 +3273,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1413</v>
+        <v>180628</v>
       </c>
       <c r="C18" s="7">
-        <v>1584</v>
+        <v>202164</v>
       </c>
       <c r="D18" s="9">
-        <v>-170</v>
+        <v>-21536</v>
       </c>
       <c r="E18" s="11">
-        <v>4042</v>
+        <v>517231</v>
       </c>
       <c r="F18" s="13">
-        <v>4119</v>
+        <v>527461</v>
       </c>
       <c r="G18" s="15">
+        <v>-10230</v>
+      </c>
+      <c r="H18" s="17">
+        <v>86639</v>
+      </c>
+      <c r="I18" s="19">
+        <v>53892</v>
+      </c>
+      <c r="J18" s="21">
+        <v>32747</v>
+      </c>
+      <c r="K18" s="23">
+        <v>50201</v>
+      </c>
+      <c r="L18" s="25">
+        <v>25503</v>
+      </c>
+      <c r="M18" s="27">
+        <v>24698</v>
+      </c>
+      <c r="N18" s="29">
+        <v>711</v>
+      </c>
+      <c r="O18" s="31">
+        <v>2101</v>
+      </c>
+      <c r="P18" s="33">
+        <v>-1390</v>
+      </c>
+      <c r="Q18" s="35">
+        <v>3292</v>
+      </c>
+      <c r="R18" s="37">
+        <v>4077</v>
+      </c>
+      <c r="S18" s="39">
+        <v>-785</v>
+      </c>
+      <c r="T18" s="41">
+        <v>0</v>
+      </c>
+      <c r="U18" s="43">
+        <v>0</v>
+      </c>
+      <c r="V18" s="45">
+        <v>0</v>
+      </c>
+      <c r="W18" s="47">
+        <v>0</v>
+      </c>
+      <c r="X18" s="49">
+        <v>77</v>
+      </c>
+      <c r="Y18" s="51">
         <v>-77</v>
       </c>
-      <c r="H18" s="17">
-        <v>678</v>
-      </c>
-      <c r="I18" s="19">
-        <v>423</v>
-      </c>
-      <c r="J18" s="21">
-        <v>255</v>
-      </c>
-      <c r="K18" s="23">
-        <v>394</v>
-      </c>
-      <c r="L18" s="25">
-        <v>200</v>
-      </c>
-      <c r="M18" s="27">
-        <v>194</v>
-      </c>
-      <c r="N18" s="29">
-        <v>6</v>
-      </c>
-      <c r="O18" s="31">
-        <v>17</v>
-      </c>
-      <c r="P18" s="33">
-        <v>-11</v>
-      </c>
-      <c r="Q18" s="35">
-        <v>26</v>
-      </c>
-      <c r="R18" s="37">
-        <v>32</v>
-      </c>
-      <c r="S18" s="39">
-        <v>-6</v>
-      </c>
-      <c r="T18" s="41">
-        <v>0</v>
-      </c>
-      <c r="U18" s="43">
-        <v>0</v>
-      </c>
-      <c r="V18" s="45">
-        <v>0</v>
-      </c>
-      <c r="W18" s="47">
-        <v>0</v>
-      </c>
-      <c r="X18" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="51">
-        <v>-1</v>
-      </c>
       <c r="Z18" s="53">
-        <v>109</v>
+        <v>14190</v>
       </c>
       <c r="AA18" s="55">
-        <v>128</v>
+        <v>16155</v>
       </c>
       <c r="AB18" s="57">
-        <v>-19</v>
+        <v>-1965</v>
       </c>
       <c r="AC18" s="59">
-        <v>144</v>
+        <v>18244</v>
       </c>
       <c r="AD18" s="61">
-        <v>47</v>
+        <v>5978</v>
       </c>
       <c r="AE18" s="63">
-        <v>97</v>
+        <v>12265</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3372,16 +3372,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>45</v>
+        <v>5741</v>
       </c>
       <c r="AJ18" s="73">
-        <v>52</v>
+        <v>6721</v>
       </c>
       <c r="AK18" s="75">
-        <v>-8</v>
+        <v>-980</v>
       </c>
       <c r="AL18" s="77">
-        <v>6178</v>
+        <v>790237</v>
       </c>
     </row>
     <row r="19">
@@ -3389,58 +3389,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1736</v>
+        <v>244447</v>
       </c>
       <c r="C19" s="7">
-        <v>2243</v>
+        <v>314583</v>
       </c>
       <c r="D19" s="9">
-        <v>-506</v>
+        <v>-70136</v>
       </c>
       <c r="E19" s="11">
-        <v>7539</v>
+        <v>1057202</v>
       </c>
       <c r="F19" s="13">
-        <v>6737</v>
+        <v>946509</v>
       </c>
       <c r="G19" s="15">
-        <v>801</v>
+        <v>110693</v>
       </c>
       <c r="H19" s="17">
-        <v>464</v>
+        <v>64828</v>
       </c>
       <c r="I19" s="19">
-        <v>742</v>
+        <v>102790</v>
       </c>
       <c r="J19" s="21">
-        <v>-277</v>
+        <v>-37962</v>
       </c>
       <c r="K19" s="23">
-        <v>186</v>
+        <v>25853</v>
       </c>
       <c r="L19" s="25">
-        <v>375</v>
+        <v>52128</v>
       </c>
       <c r="M19" s="27">
-        <v>-189</v>
+        <v>-26275</v>
       </c>
       <c r="N19" s="29">
-        <v>7</v>
+        <v>1043</v>
       </c>
       <c r="O19" s="31">
-        <v>42</v>
+        <v>5796</v>
       </c>
       <c r="P19" s="33">
-        <v>-35</v>
+        <v>-4753</v>
       </c>
       <c r="Q19" s="35">
-        <v>24</v>
+        <v>3410</v>
       </c>
       <c r="R19" s="37">
-        <v>57</v>
+        <v>7903</v>
       </c>
       <c r="S19" s="39">
-        <v>-33</v>
+        <v>-4493</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3452,31 +3452,31 @@
         <v>0</v>
       </c>
       <c r="W19" s="47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X19" s="49">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="Y19" s="51">
-        <v>-1</v>
+        <v>-68</v>
       </c>
       <c r="Z19" s="53">
-        <v>195</v>
+        <v>27321</v>
       </c>
       <c r="AA19" s="55">
-        <v>205</v>
+        <v>28285</v>
       </c>
       <c r="AB19" s="57">
-        <v>-10</v>
+        <v>-964</v>
       </c>
       <c r="AC19" s="59">
-        <v>52</v>
+        <v>7190</v>
       </c>
       <c r="AD19" s="61">
-        <v>62</v>
+        <v>8599</v>
       </c>
       <c r="AE19" s="63">
-        <v>-10</v>
+        <v>-1410</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3488,16 +3488,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>48</v>
+        <v>6717</v>
       </c>
       <c r="AJ19" s="73">
-        <v>65</v>
+        <v>9312</v>
       </c>
       <c r="AK19" s="75">
-        <v>-18</v>
+        <v>-2595</v>
       </c>
       <c r="AL19" s="77">
-        <v>9787</v>
+        <v>1373193</v>
       </c>
     </row>
     <row r="20">
@@ -3505,58 +3505,58 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>2220</v>
+        <v>328995</v>
       </c>
       <c r="C20" s="7">
-        <v>2640</v>
+        <v>391567</v>
       </c>
       <c r="D20" s="9">
-        <v>-420</v>
+        <v>-62572</v>
       </c>
       <c r="E20" s="11">
-        <v>6502</v>
+        <v>967314</v>
       </c>
       <c r="F20" s="13">
-        <v>6293</v>
+        <v>938562</v>
       </c>
       <c r="G20" s="15">
-        <v>208</v>
+        <v>28753</v>
       </c>
       <c r="H20" s="17">
-        <v>802</v>
+        <v>120112</v>
       </c>
       <c r="I20" s="19">
-        <v>624</v>
+        <v>91462</v>
       </c>
       <c r="J20" s="21">
-        <v>178</v>
+        <v>28650</v>
       </c>
       <c r="K20" s="23">
-        <v>423</v>
+        <v>63079</v>
       </c>
       <c r="L20" s="25">
-        <v>331</v>
+        <v>48832</v>
       </c>
       <c r="M20" s="27">
-        <v>93</v>
+        <v>14247</v>
       </c>
       <c r="N20" s="29">
-        <v>33</v>
+        <v>4964</v>
       </c>
       <c r="O20" s="31">
-        <v>28</v>
+        <v>4130</v>
       </c>
       <c r="P20" s="33">
-        <v>5</v>
+        <v>834</v>
       </c>
       <c r="Q20" s="35">
-        <v>132</v>
+        <v>19791</v>
       </c>
       <c r="R20" s="37">
-        <v>59</v>
+        <v>8490</v>
       </c>
       <c r="S20" s="39">
-        <v>74</v>
+        <v>11301</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
@@ -3568,31 +3568,31 @@
         <v>0</v>
       </c>
       <c r="W20" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="49">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="Y20" s="51">
-        <v>-1</v>
+        <v>-101</v>
       </c>
       <c r="Z20" s="53">
-        <v>162</v>
+        <v>24411</v>
       </c>
       <c r="AA20" s="55">
-        <v>112</v>
+        <v>16324</v>
       </c>
       <c r="AB20" s="57">
-        <v>50</v>
+        <v>8087</v>
       </c>
       <c r="AC20" s="59">
-        <v>51</v>
+        <v>7866</v>
       </c>
       <c r="AD20" s="61">
-        <v>93</v>
+        <v>13584</v>
       </c>
       <c r="AE20" s="63">
-        <v>-42</v>
+        <v>-5718</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3604,16 +3604,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>80</v>
+        <v>12168</v>
       </c>
       <c r="AJ20" s="73">
-        <v>47</v>
+        <v>6999</v>
       </c>
       <c r="AK20" s="75">
-        <v>34</v>
+        <v>5170</v>
       </c>
       <c r="AL20" s="77">
-        <v>9605</v>
+        <v>1428590</v>
       </c>
     </row>
     <row r="21">
@@ -3621,94 +3621,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>2566</v>
+        <v>397243</v>
       </c>
       <c r="C21" s="7">
-        <v>2388</v>
+        <v>376241</v>
       </c>
       <c r="D21" s="9">
-        <v>178</v>
+        <v>21002</v>
       </c>
       <c r="E21" s="11">
-        <v>6557</v>
+        <v>1030054</v>
       </c>
       <c r="F21" s="13">
-        <v>6086</v>
+        <v>946314</v>
       </c>
       <c r="G21" s="15">
-        <v>472</v>
+        <v>83740</v>
       </c>
       <c r="H21" s="17">
-        <v>446</v>
+        <v>69135</v>
       </c>
       <c r="I21" s="19">
-        <v>1098</v>
+        <v>174253</v>
       </c>
       <c r="J21" s="21">
-        <v>-652</v>
+        <v>-105118</v>
       </c>
       <c r="K21" s="23">
-        <v>203</v>
+        <v>30740</v>
       </c>
       <c r="L21" s="25">
-        <v>518</v>
+        <v>82011</v>
       </c>
       <c r="M21" s="27">
-        <v>-316</v>
+        <v>-51271</v>
       </c>
       <c r="N21" s="29">
-        <v>13</v>
+        <v>2106</v>
       </c>
       <c r="O21" s="31">
-        <v>31</v>
+        <v>4793</v>
       </c>
       <c r="P21" s="33">
-        <v>-18</v>
+        <v>-2687</v>
       </c>
       <c r="Q21" s="35">
-        <v>31</v>
+        <v>4928</v>
       </c>
       <c r="R21" s="37">
-        <v>71</v>
+        <v>11335</v>
       </c>
       <c r="S21" s="39">
-        <v>-41</v>
+        <v>-6407</v>
       </c>
       <c r="T21" s="41">
         <v>0</v>
       </c>
       <c r="U21" s="43">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="V21" s="45">
-        <v>-1</v>
+        <v>-191</v>
       </c>
       <c r="W21" s="47">
         <v>0</v>
       </c>
       <c r="X21" s="49">
-        <v>2</v>
+        <v>360</v>
       </c>
       <c r="Y21" s="51">
-        <v>-2</v>
+        <v>-360</v>
       </c>
       <c r="Z21" s="53">
-        <v>170</v>
+        <v>26789</v>
       </c>
       <c r="AA21" s="55">
-        <v>257</v>
+        <v>40131</v>
       </c>
       <c r="AB21" s="57">
-        <v>-87</v>
+        <v>-13342</v>
       </c>
       <c r="AC21" s="59">
-        <v>30</v>
+        <v>4571</v>
       </c>
       <c r="AD21" s="61">
-        <v>217</v>
+        <v>35432</v>
       </c>
       <c r="AE21" s="63">
-        <v>-187</v>
+        <v>-30861</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>51</v>
+        <v>7694</v>
       </c>
       <c r="AJ21" s="73">
-        <v>49</v>
+        <v>7318</v>
       </c>
       <c r="AK21" s="75">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="AL21" s="77">
-        <v>9620</v>
+        <v>1504126</v>
       </c>
     </row>
     <row r="22">
@@ -3737,94 +3737,94 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>2557</v>
+        <v>493728</v>
       </c>
       <c r="C22" s="7">
-        <v>2586</v>
+        <v>512807</v>
       </c>
       <c r="D22" s="9">
-        <v>-29</v>
+        <v>-19078</v>
       </c>
       <c r="E22" s="11">
-        <v>8372</v>
+        <v>1679146</v>
       </c>
       <c r="F22" s="13">
-        <v>8033</v>
+        <v>1598711</v>
       </c>
       <c r="G22" s="15">
-        <v>338</v>
+        <v>80435</v>
       </c>
       <c r="H22" s="17">
-        <v>654</v>
+        <v>130569</v>
       </c>
       <c r="I22" s="19">
-        <v>980</v>
+        <v>195049</v>
       </c>
       <c r="J22" s="21">
-        <v>-326</v>
+        <v>-64480</v>
       </c>
       <c r="K22" s="23">
-        <v>155</v>
+        <v>30201</v>
       </c>
       <c r="L22" s="25">
-        <v>191</v>
+        <v>38273</v>
       </c>
       <c r="M22" s="27">
-        <v>-36</v>
+        <v>-8072</v>
       </c>
       <c r="N22" s="29">
-        <v>12</v>
+        <v>2526</v>
       </c>
       <c r="O22" s="31">
-        <v>61</v>
+        <v>11999</v>
       </c>
       <c r="P22" s="33">
-        <v>-49</v>
+        <v>-9474</v>
       </c>
       <c r="Q22" s="35">
-        <v>40</v>
+        <v>8134</v>
       </c>
       <c r="R22" s="37">
-        <v>86</v>
+        <v>16650</v>
       </c>
       <c r="S22" s="39">
-        <v>-46</v>
+        <v>-8516</v>
       </c>
       <c r="T22" s="41">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U22" s="43">
-        <v>2</v>
+        <v>363</v>
       </c>
       <c r="V22" s="45">
-        <v>-2</v>
+        <v>-343</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="X22" s="49">
-        <v>4</v>
+        <v>808</v>
       </c>
       <c r="Y22" s="51">
-        <v>-4</v>
+        <v>-763</v>
       </c>
       <c r="Z22" s="53">
-        <v>212</v>
+        <v>43584</v>
       </c>
       <c r="AA22" s="55">
-        <v>307</v>
+        <v>60543</v>
       </c>
       <c r="AB22" s="57">
-        <v>-94</v>
+        <v>-16959</v>
       </c>
       <c r="AC22" s="59">
-        <v>234</v>
+        <v>46059</v>
       </c>
       <c r="AD22" s="61">
-        <v>329</v>
+        <v>66412</v>
       </c>
       <c r="AE22" s="63">
-        <v>-95</v>
+        <v>-20354</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>43</v>
+        <v>8473</v>
       </c>
       <c r="AJ22" s="73">
-        <v>26</v>
+        <v>5350</v>
       </c>
       <c r="AK22" s="75">
-        <v>16</v>
+        <v>3123</v>
       </c>
       <c r="AL22" s="77">
-        <v>11626</v>
+        <v>2311916</v>
       </c>
     </row>
     <row r="23">
@@ -3853,94 +3853,94 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>2591</v>
+        <v>649138</v>
       </c>
       <c r="C23" s="7">
-        <v>2941</v>
+        <v>737851</v>
       </c>
       <c r="D23" s="9">
-        <v>-350</v>
+        <v>-88713</v>
       </c>
       <c r="E23" s="11">
-        <v>14987</v>
+        <v>3730873</v>
       </c>
       <c r="F23" s="13">
-        <v>14447</v>
+        <v>3603100</v>
       </c>
       <c r="G23" s="15">
-        <v>540</v>
+        <v>127773</v>
       </c>
       <c r="H23" s="17">
-        <v>1207</v>
+        <v>302596</v>
       </c>
       <c r="I23" s="19">
-        <v>1408</v>
+        <v>344257</v>
       </c>
       <c r="J23" s="21">
-        <v>-201</v>
+        <v>-41661</v>
       </c>
       <c r="K23" s="23">
-        <v>265</v>
+        <v>64317</v>
       </c>
       <c r="L23" s="25">
-        <v>427</v>
+        <v>106320</v>
       </c>
       <c r="M23" s="27">
-        <v>-162</v>
+        <v>-42004</v>
       </c>
       <c r="N23" s="29">
-        <v>64</v>
+        <v>15909</v>
       </c>
       <c r="O23" s="31">
-        <v>46</v>
+        <v>11237</v>
       </c>
       <c r="P23" s="33">
-        <v>18</v>
+        <v>4672</v>
       </c>
       <c r="Q23" s="35">
-        <v>198</v>
+        <v>49670</v>
       </c>
       <c r="R23" s="37">
-        <v>123</v>
+        <v>30135</v>
       </c>
       <c r="S23" s="39">
-        <v>76</v>
+        <v>19536</v>
       </c>
       <c r="T23" s="41">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="U23" s="43">
-        <v>4</v>
+        <v>888</v>
       </c>
       <c r="V23" s="45">
-        <v>-3</v>
+        <v>-759</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="X23" s="49">
-        <v>38</v>
+        <v>9158</v>
       </c>
       <c r="Y23" s="51">
-        <v>-37</v>
+        <v>-9068</v>
       </c>
       <c r="Z23" s="53">
-        <v>470</v>
+        <v>119448</v>
       </c>
       <c r="AA23" s="55">
-        <v>314</v>
+        <v>74980</v>
       </c>
       <c r="AB23" s="57">
-        <v>156</v>
+        <v>44469</v>
       </c>
       <c r="AC23" s="59">
-        <v>209</v>
+        <v>53033</v>
       </c>
       <c r="AD23" s="61">
-        <v>458</v>
+        <v>111540</v>
       </c>
       <c r="AE23" s="63">
-        <v>-248</v>
+        <v>-58507</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3952,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>91</v>
+        <v>22712</v>
       </c>
       <c r="AJ23" s="73">
-        <v>79</v>
+        <v>20110</v>
       </c>
       <c r="AK23" s="75">
-        <v>12</v>
+        <v>2601</v>
       </c>
       <c r="AL23" s="77">
-        <v>18875</v>
+        <v>4705319</v>
       </c>
     </row>
     <row r="24">
@@ -3969,94 +3969,94 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>3538</v>
+        <v>892546</v>
       </c>
       <c r="C24" s="7">
-        <v>3223</v>
+        <v>815079</v>
       </c>
       <c r="D24" s="9">
-        <v>315</v>
+        <v>77466</v>
       </c>
       <c r="E24" s="11">
-        <v>13416</v>
+        <v>3361177</v>
       </c>
       <c r="F24" s="13">
-        <v>13916</v>
+        <v>3491031</v>
       </c>
       <c r="G24" s="15">
-        <v>-500</v>
+        <v>-129854</v>
       </c>
       <c r="H24" s="17">
-        <v>1053</v>
+        <v>264021</v>
       </c>
       <c r="I24" s="19">
-        <v>865</v>
+        <v>210698</v>
       </c>
       <c r="J24" s="21">
-        <v>188</v>
+        <v>53323</v>
       </c>
       <c r="K24" s="23">
-        <v>176</v>
+        <v>43623</v>
       </c>
       <c r="L24" s="25">
-        <v>186</v>
+        <v>46319</v>
       </c>
       <c r="M24" s="27">
-        <v>-10</v>
+        <v>-2697</v>
       </c>
       <c r="N24" s="29">
-        <v>53</v>
+        <v>13559</v>
       </c>
       <c r="O24" s="31">
-        <v>31</v>
+        <v>7437</v>
       </c>
       <c r="P24" s="33">
-        <v>23</v>
+        <v>6122</v>
       </c>
       <c r="Q24" s="35">
-        <v>169</v>
+        <v>43277</v>
       </c>
       <c r="R24" s="37">
-        <v>142</v>
+        <v>34027</v>
       </c>
       <c r="S24" s="39">
-        <v>27</v>
+        <v>9251</v>
       </c>
       <c r="T24" s="41">
-        <v>2</v>
+        <v>434</v>
       </c>
       <c r="U24" s="43">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="V24" s="45">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="W24" s="47">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="X24" s="49">
-        <v>17</v>
+        <v>4566</v>
       </c>
       <c r="Y24" s="51">
-        <v>-17</v>
+        <v>-4419</v>
       </c>
       <c r="Z24" s="53">
-        <v>377</v>
+        <v>95730</v>
       </c>
       <c r="AA24" s="55">
-        <v>163</v>
+        <v>39070</v>
       </c>
       <c r="AB24" s="57">
-        <v>214</v>
+        <v>56661</v>
       </c>
       <c r="AC24" s="59">
-        <v>276</v>
+        <v>67251</v>
       </c>
       <c r="AD24" s="61">
-        <v>326</v>
+        <v>79082</v>
       </c>
       <c r="AE24" s="63">
-        <v>-50</v>
+        <v>-11832</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4068,16 +4068,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>99</v>
+        <v>24600</v>
       </c>
       <c r="AJ24" s="73">
-        <v>102</v>
+        <v>25536</v>
       </c>
       <c r="AK24" s="75">
-        <v>-3</v>
+        <v>-935</v>
       </c>
       <c r="AL24" s="77">
-        <v>18107</v>
+        <v>4542344</v>
       </c>
     </row>
     <row r="25">
@@ -4085,94 +4085,94 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>2466</v>
+        <v>575963</v>
       </c>
       <c r="C25" s="7">
-        <v>2158</v>
+        <v>510934</v>
       </c>
       <c r="D25" s="9">
-        <v>307</v>
+        <v>65029</v>
       </c>
       <c r="E25" s="11">
-        <v>9744</v>
+        <v>2299298</v>
       </c>
       <c r="F25" s="13">
-        <v>9587</v>
+        <v>2255698</v>
       </c>
       <c r="G25" s="15">
-        <v>157</v>
+        <v>43599</v>
       </c>
       <c r="H25" s="17">
-        <v>520</v>
+        <v>123037</v>
       </c>
       <c r="I25" s="19">
-        <v>981</v>
+        <v>230789</v>
       </c>
       <c r="J25" s="21">
-        <v>-461</v>
+        <v>-107752</v>
       </c>
       <c r="K25" s="23">
-        <v>122</v>
+        <v>28753</v>
       </c>
       <c r="L25" s="25">
-        <v>148</v>
+        <v>34828</v>
       </c>
       <c r="M25" s="27">
-        <v>-26</v>
+        <v>-6075</v>
       </c>
       <c r="N25" s="29">
-        <v>38</v>
+        <v>9149</v>
       </c>
       <c r="O25" s="31">
-        <v>84</v>
+        <v>20119</v>
       </c>
       <c r="P25" s="33">
-        <v>-46</v>
+        <v>-10969</v>
       </c>
       <c r="Q25" s="35">
-        <v>80</v>
+        <v>19647</v>
       </c>
       <c r="R25" s="37">
-        <v>172</v>
+        <v>40385</v>
       </c>
       <c r="S25" s="39">
-        <v>-92</v>
+        <v>-20739</v>
       </c>
       <c r="T25" s="41">
-        <v>3</v>
+        <v>598</v>
       </c>
       <c r="U25" s="43">
-        <v>5</v>
+        <v>1202</v>
       </c>
       <c r="V25" s="45">
-        <v>-3</v>
+        <v>-604</v>
       </c>
       <c r="W25" s="47">
-        <v>2</v>
+        <v>621</v>
       </c>
       <c r="X25" s="49">
-        <v>13</v>
+        <v>3121</v>
       </c>
       <c r="Y25" s="51">
-        <v>-11</v>
+        <v>-2501</v>
       </c>
       <c r="Z25" s="53">
-        <v>157</v>
+        <v>36291</v>
       </c>
       <c r="AA25" s="55">
-        <v>387</v>
+        <v>90710</v>
       </c>
       <c r="AB25" s="57">
-        <v>-230</v>
+        <v>-54419</v>
       </c>
       <c r="AC25" s="59">
-        <v>117</v>
+        <v>27978</v>
       </c>
       <c r="AD25" s="61">
-        <v>172</v>
+        <v>40425</v>
       </c>
       <c r="AE25" s="63">
-        <v>-54</v>
+        <v>-12446</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4184,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>59</v>
+        <v>13893</v>
       </c>
       <c r="AJ25" s="73">
-        <v>63</v>
+        <v>14769</v>
       </c>
       <c r="AK25" s="75">
-        <v>-4</v>
+        <v>-876</v>
       </c>
       <c r="AL25" s="77">
-        <v>12789</v>
+        <v>3012191</v>
       </c>
     </row>
     <row r="26">
@@ -4201,94 +4201,94 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>4510</v>
+        <v>1299389</v>
       </c>
       <c r="C26" s="7">
-        <v>3744</v>
+        <v>1076702</v>
       </c>
       <c r="D26" s="9">
-        <v>767</v>
+        <v>222687</v>
       </c>
       <c r="E26" s="11">
-        <v>17546</v>
+        <v>5162421</v>
       </c>
       <c r="F26" s="13">
-        <v>16517</v>
+        <v>4908506</v>
       </c>
       <c r="G26" s="15">
-        <v>1029</v>
+        <v>253916</v>
       </c>
       <c r="H26" s="17">
-        <v>890</v>
+        <v>254203</v>
       </c>
       <c r="I26" s="19">
-        <v>2627</v>
+        <v>713546</v>
       </c>
       <c r="J26" s="21">
-        <v>-1737</v>
+        <v>-459343</v>
       </c>
       <c r="K26" s="23">
-        <v>149</v>
+        <v>42342</v>
       </c>
       <c r="L26" s="25">
-        <v>328</v>
+        <v>92304</v>
       </c>
       <c r="M26" s="27">
-        <v>-178</v>
+        <v>-49962</v>
       </c>
       <c r="N26" s="29">
-        <v>44</v>
+        <v>12052</v>
       </c>
       <c r="O26" s="31">
-        <v>113</v>
+        <v>31264</v>
       </c>
       <c r="P26" s="33">
-        <v>-69</v>
+        <v>-19212</v>
       </c>
       <c r="Q26" s="35">
-        <v>265</v>
+        <v>76824</v>
       </c>
       <c r="R26" s="37">
-        <v>601</v>
+        <v>159968</v>
       </c>
       <c r="S26" s="39">
-        <v>-335</v>
+        <v>-83144</v>
       </c>
       <c r="T26" s="41">
-        <v>5</v>
+        <v>1319</v>
       </c>
       <c r="U26" s="43">
-        <v>2</v>
+        <v>650</v>
       </c>
       <c r="V26" s="45">
-        <v>2</v>
+        <v>669</v>
       </c>
       <c r="W26" s="47">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="X26" s="49">
-        <v>44</v>
+        <v>11682</v>
       </c>
       <c r="Y26" s="51">
-        <v>-43</v>
+        <v>-11459</v>
       </c>
       <c r="Z26" s="53">
-        <v>263</v>
+        <v>76342</v>
       </c>
       <c r="AA26" s="55">
-        <v>496</v>
+        <v>136777</v>
       </c>
       <c r="AB26" s="57">
-        <v>-232</v>
+        <v>-60435</v>
       </c>
       <c r="AC26" s="59">
-        <v>162</v>
+        <v>45101</v>
       </c>
       <c r="AD26" s="61">
-        <v>1044</v>
+        <v>280901</v>
       </c>
       <c r="AE26" s="63">
-        <v>-882</v>
+        <v>-235800</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4300,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>93</v>
+        <v>27375</v>
       </c>
       <c r="AJ26" s="73">
-        <v>151</v>
+        <v>44634</v>
       </c>
       <c r="AK26" s="75">
-        <v>-59</v>
+        <v>-17260</v>
       </c>
       <c r="AL26" s="77">
-        <v>23039</v>
+        <v>6743387</v>
       </c>
     </row>
     <row r="27">
@@ -4317,94 +4317,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>7020</v>
+        <v>1960311</v>
       </c>
       <c r="C27" s="7">
-        <v>6566</v>
+        <v>1857140</v>
       </c>
       <c r="D27" s="9">
-        <v>454</v>
+        <v>103171</v>
       </c>
       <c r="E27" s="11">
-        <v>70380</v>
+        <v>19883804</v>
       </c>
       <c r="F27" s="13">
-        <v>70235</v>
+        <v>19802978</v>
       </c>
       <c r="G27" s="15">
-        <v>145</v>
+        <v>80826</v>
       </c>
       <c r="H27" s="17">
-        <v>1376</v>
+        <v>349019</v>
       </c>
       <c r="I27" s="19">
-        <v>1958</v>
+        <v>531291</v>
       </c>
       <c r="J27" s="21">
-        <v>-582</v>
+        <v>-182272</v>
       </c>
       <c r="K27" s="23">
-        <v>361</v>
+        <v>97873</v>
       </c>
       <c r="L27" s="25">
-        <v>411</v>
+        <v>112485</v>
       </c>
       <c r="M27" s="27">
-        <v>-51</v>
+        <v>-14612</v>
       </c>
       <c r="N27" s="29">
-        <v>67</v>
+        <v>16657</v>
       </c>
       <c r="O27" s="31">
-        <v>125</v>
+        <v>35097</v>
       </c>
       <c r="P27" s="33">
-        <v>-59</v>
+        <v>-18440</v>
       </c>
       <c r="Q27" s="35">
-        <v>290</v>
+        <v>75811</v>
       </c>
       <c r="R27" s="37">
-        <v>456</v>
+        <v>127392</v>
       </c>
       <c r="S27" s="39">
-        <v>-167</v>
+        <v>-51581</v>
       </c>
       <c r="T27" s="41">
-        <v>1</v>
+        <v>335</v>
       </c>
       <c r="U27" s="43">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>-190</v>
       </c>
       <c r="W27" s="47">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="X27" s="49">
-        <v>15</v>
+        <v>3798</v>
       </c>
       <c r="Y27" s="51">
-        <v>-14</v>
+        <v>-3610</v>
       </c>
       <c r="Z27" s="53">
-        <v>388</v>
+        <v>96727</v>
       </c>
       <c r="AA27" s="55">
-        <v>374</v>
+        <v>107393</v>
       </c>
       <c r="AB27" s="57">
-        <v>14</v>
+        <v>-10666</v>
       </c>
       <c r="AC27" s="59">
-        <v>269</v>
+        <v>61428</v>
       </c>
       <c r="AD27" s="61">
-        <v>575</v>
+        <v>144601</v>
       </c>
       <c r="AE27" s="63">
-        <v>-306</v>
+        <v>-83173</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4416,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>332</v>
+        <v>93470</v>
       </c>
       <c r="AJ27" s="73">
-        <v>349</v>
+        <v>95194</v>
       </c>
       <c r="AK27" s="75">
-        <v>-17</v>
+        <v>-1724</v>
       </c>
       <c r="AL27" s="77">
-        <v>79108</v>
+        <v>22286604</v>
       </c>
     </row>
     <row r="28">
@@ -4433,94 +4433,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>1976</v>
+        <v>321655</v>
       </c>
       <c r="C28" s="7">
-        <v>1661</v>
+        <v>268476</v>
       </c>
       <c r="D28" s="9">
-        <v>315</v>
+        <v>53180</v>
       </c>
       <c r="E28" s="11">
-        <v>10269</v>
+        <v>1664843</v>
       </c>
       <c r="F28" s="13">
-        <v>10706</v>
+        <v>1739933</v>
       </c>
       <c r="G28" s="15">
-        <v>-437</v>
+        <v>-75090</v>
       </c>
       <c r="H28" s="17">
-        <v>1036</v>
+        <v>168645</v>
       </c>
       <c r="I28" s="19">
-        <v>916</v>
+        <v>147230</v>
       </c>
       <c r="J28" s="21">
-        <v>120</v>
+        <v>21415</v>
       </c>
       <c r="K28" s="23">
-        <v>169</v>
+        <v>27433</v>
       </c>
       <c r="L28" s="25">
-        <v>157</v>
+        <v>25407</v>
       </c>
       <c r="M28" s="27">
-        <v>12</v>
+        <v>2026</v>
       </c>
       <c r="N28" s="29">
-        <v>96</v>
+        <v>15736</v>
       </c>
       <c r="O28" s="31">
-        <v>34</v>
+        <v>5384</v>
       </c>
       <c r="P28" s="33">
-        <v>63</v>
+        <v>10352</v>
       </c>
       <c r="Q28" s="35">
-        <v>163</v>
+        <v>26733</v>
       </c>
       <c r="R28" s="37">
-        <v>172</v>
+        <v>27878</v>
       </c>
       <c r="S28" s="39">
-        <v>-9</v>
+        <v>-1145</v>
       </c>
       <c r="T28" s="41">
         <v>0</v>
       </c>
       <c r="U28" s="43">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="V28" s="45">
-        <v>-1</v>
+        <v>-170</v>
       </c>
       <c r="W28" s="47">
-        <v>4</v>
+        <v>581</v>
       </c>
       <c r="X28" s="49">
-        <v>16</v>
+        <v>2577</v>
       </c>
       <c r="Y28" s="51">
-        <v>-12</v>
+        <v>-1996</v>
       </c>
       <c r="Z28" s="53">
-        <v>386</v>
+        <v>62318</v>
       </c>
       <c r="AA28" s="55">
-        <v>91</v>
+        <v>14429</v>
       </c>
       <c r="AB28" s="57">
-        <v>295</v>
+        <v>47889</v>
       </c>
       <c r="AC28" s="59">
-        <v>217</v>
+        <v>35844</v>
       </c>
       <c r="AD28" s="61">
-        <v>444</v>
+        <v>71384</v>
       </c>
       <c r="AE28" s="63">
-        <v>-227</v>
+        <v>-35540</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4532,16 +4532,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>117</v>
+        <v>19219</v>
       </c>
       <c r="AJ28" s="73">
-        <v>115</v>
+        <v>18723</v>
       </c>
       <c r="AK28" s="75">
-        <v>2</v>
+        <v>496</v>
       </c>
       <c r="AL28" s="77">
-        <v>13398</v>
+        <v>2174362</v>
       </c>
     </row>
     <row r="29">
@@ -4549,94 +4549,94 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>1399</v>
+        <v>217008</v>
       </c>
       <c r="C29" s="7">
-        <v>1218</v>
+        <v>188877</v>
       </c>
       <c r="D29" s="9">
-        <v>180</v>
+        <v>28131</v>
       </c>
       <c r="E29" s="11">
-        <v>9453</v>
+        <v>1462837</v>
       </c>
       <c r="F29" s="13">
-        <v>8129</v>
+        <v>1265526</v>
       </c>
       <c r="G29" s="15">
-        <v>1324</v>
+        <v>197311</v>
       </c>
       <c r="H29" s="17">
-        <v>1472</v>
+        <v>229845</v>
       </c>
       <c r="I29" s="19">
-        <v>2895</v>
+        <v>442560</v>
       </c>
       <c r="J29" s="21">
-        <v>-1422</v>
+        <v>-212715</v>
       </c>
       <c r="K29" s="23">
-        <v>109</v>
+        <v>16871</v>
       </c>
       <c r="L29" s="25">
-        <v>563</v>
+        <v>86480</v>
       </c>
       <c r="M29" s="27">
-        <v>-454</v>
+        <v>-69609</v>
       </c>
       <c r="N29" s="29">
-        <v>134</v>
+        <v>20865</v>
       </c>
       <c r="O29" s="31">
-        <v>64</v>
+        <v>9839</v>
       </c>
       <c r="P29" s="33">
-        <v>70</v>
+        <v>11027</v>
       </c>
       <c r="Q29" s="35">
-        <v>271</v>
+        <v>42391</v>
       </c>
       <c r="R29" s="37">
-        <v>576</v>
+        <v>87846</v>
       </c>
       <c r="S29" s="39">
-        <v>-305</v>
+        <v>-45455</v>
       </c>
       <c r="T29" s="41">
         <v>0</v>
       </c>
       <c r="U29" s="43">
-        <v>3</v>
+        <v>453</v>
       </c>
       <c r="V29" s="45">
-        <v>-3</v>
+        <v>-453</v>
       </c>
       <c r="W29" s="47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X29" s="49">
-        <v>71</v>
+        <v>10911</v>
       </c>
       <c r="Y29" s="51">
-        <v>-71</v>
+        <v>-10903</v>
       </c>
       <c r="Z29" s="53">
-        <v>741</v>
+        <v>115912</v>
       </c>
       <c r="AA29" s="55">
-        <v>213</v>
+        <v>32819</v>
       </c>
       <c r="AB29" s="57">
-        <v>528</v>
+        <v>83093</v>
       </c>
       <c r="AC29" s="59">
-        <v>217</v>
+        <v>33796</v>
       </c>
       <c r="AD29" s="61">
-        <v>1404</v>
+        <v>214212</v>
       </c>
       <c r="AE29" s="63">
-        <v>-1186</v>
+        <v>-180415</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4648,16 +4648,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>83</v>
+        <v>12724</v>
       </c>
       <c r="AJ29" s="73">
-        <v>165</v>
+        <v>25450</v>
       </c>
       <c r="AK29" s="75">
-        <v>-82</v>
+        <v>-12727</v>
       </c>
       <c r="AL29" s="77">
-        <v>12407</v>
+        <v>1922414</v>
       </c>
     </row>
     <row r="30">
@@ -4665,94 +4665,94 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>977</v>
+        <v>152695</v>
       </c>
       <c r="C30" s="7">
-        <v>631</v>
+        <v>98462</v>
       </c>
       <c r="D30" s="9">
-        <v>346</v>
+        <v>54233</v>
       </c>
       <c r="E30" s="11">
-        <v>10285</v>
+        <v>1607304</v>
       </c>
       <c r="F30" s="13">
-        <v>10631</v>
+        <v>1664085</v>
       </c>
       <c r="G30" s="15">
-        <v>-346</v>
+        <v>-56781</v>
       </c>
       <c r="H30" s="17">
-        <v>723</v>
+        <v>113188</v>
       </c>
       <c r="I30" s="19">
-        <v>761</v>
+        <v>116806</v>
       </c>
       <c r="J30" s="21">
-        <v>-38</v>
+        <v>-3618</v>
       </c>
       <c r="K30" s="23">
+        <v>5139</v>
+      </c>
+      <c r="L30" s="25">
+        <v>11456</v>
+      </c>
+      <c r="M30" s="27">
+        <v>-6317</v>
+      </c>
+      <c r="N30" s="29">
+        <v>6068</v>
+      </c>
+      <c r="O30" s="31">
+        <v>12558</v>
+      </c>
+      <c r="P30" s="33">
+        <v>-6489</v>
+      </c>
+      <c r="Q30" s="35">
+        <v>13613</v>
+      </c>
+      <c r="R30" s="37">
+        <v>21303</v>
+      </c>
+      <c r="S30" s="39">
+        <v>-7690</v>
+      </c>
+      <c r="T30" s="41">
+        <v>0</v>
+      </c>
+      <c r="U30" s="43">
+        <v>0</v>
+      </c>
+      <c r="V30" s="45">
+        <v>0</v>
+      </c>
+      <c r="W30" s="47">
+        <v>62</v>
+      </c>
+      <c r="X30" s="49">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="51">
         <v>33</v>
       </c>
-      <c r="L30" s="25">
-        <v>74</v>
-      </c>
-      <c r="M30" s="27">
-        <v>-41</v>
-      </c>
-      <c r="N30" s="29">
-        <v>39</v>
-      </c>
-      <c r="O30" s="31">
-        <v>82</v>
-      </c>
-      <c r="P30" s="33">
-        <v>-43</v>
-      </c>
-      <c r="Q30" s="35">
-        <v>87</v>
-      </c>
-      <c r="R30" s="37">
-        <v>137</v>
-      </c>
-      <c r="S30" s="39">
-        <v>-51</v>
-      </c>
-      <c r="T30" s="41">
-        <v>0</v>
-      </c>
-      <c r="U30" s="43">
-        <v>0</v>
-      </c>
-      <c r="V30" s="45">
-        <v>0</v>
-      </c>
-      <c r="W30" s="47">
-        <v>0</v>
-      </c>
-      <c r="X30" s="49">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="51">
-        <v>0</v>
-      </c>
       <c r="Z30" s="53">
-        <v>420</v>
+        <v>65720</v>
       </c>
       <c r="AA30" s="55">
-        <v>158</v>
+        <v>23938</v>
       </c>
       <c r="AB30" s="57">
-        <v>263</v>
+        <v>41782</v>
       </c>
       <c r="AC30" s="59">
-        <v>143</v>
+        <v>22586</v>
       </c>
       <c r="AD30" s="61">
-        <v>310</v>
+        <v>47522</v>
       </c>
       <c r="AE30" s="63">
-        <v>-167</v>
+        <v>-24936</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4764,16 +4764,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>103</v>
+        <v>16308</v>
       </c>
       <c r="AJ30" s="73">
-        <v>64</v>
+        <v>10142</v>
       </c>
       <c r="AK30" s="75">
-        <v>38</v>
+        <v>6166</v>
       </c>
       <c r="AL30" s="77">
-        <v>12088</v>
+        <v>1889495</v>
       </c>
     </row>
     <row r="31">
@@ -4781,94 +4781,94 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>1164</v>
+        <v>162928</v>
       </c>
       <c r="C31" s="7">
-        <v>1462</v>
+        <v>200982</v>
       </c>
       <c r="D31" s="9">
-        <v>-298</v>
+        <v>-38054</v>
       </c>
       <c r="E31" s="11">
-        <v>24717</v>
+        <v>3454300</v>
       </c>
       <c r="F31" s="13">
-        <v>24625</v>
+        <v>3438833</v>
       </c>
       <c r="G31" s="15">
-        <v>91</v>
+        <v>15467</v>
       </c>
       <c r="H31" s="17">
-        <v>2376</v>
+        <v>332133</v>
       </c>
       <c r="I31" s="19">
-        <v>2152</v>
+        <v>307120</v>
       </c>
       <c r="J31" s="21">
-        <v>223</v>
+        <v>25013</v>
       </c>
       <c r="K31" s="23">
-        <v>105</v>
+        <v>14705</v>
       </c>
       <c r="L31" s="25">
-        <v>321</v>
+        <v>43670</v>
       </c>
       <c r="M31" s="27">
-        <v>-217</v>
+        <v>-28965</v>
       </c>
       <c r="N31" s="29">
-        <v>245</v>
+        <v>34422</v>
       </c>
       <c r="O31" s="31">
-        <v>40</v>
+        <v>5846</v>
       </c>
       <c r="P31" s="33">
-        <v>205</v>
+        <v>28576</v>
       </c>
       <c r="Q31" s="35">
-        <v>404</v>
+        <v>56219</v>
       </c>
       <c r="R31" s="37">
-        <v>373</v>
+        <v>54255</v>
       </c>
       <c r="S31" s="39">
-        <v>31</v>
+        <v>1964</v>
       </c>
       <c r="T31" s="41">
-        <v>4</v>
+        <v>530</v>
       </c>
       <c r="U31" s="43">
-        <v>8</v>
+        <v>1086</v>
       </c>
       <c r="V31" s="45">
-        <v>-4</v>
+        <v>-556</v>
       </c>
       <c r="W31" s="47">
-        <v>11</v>
+        <v>1690</v>
       </c>
       <c r="X31" s="49">
-        <v>38</v>
+        <v>5113</v>
       </c>
       <c r="Y31" s="51">
-        <v>-27</v>
+        <v>-3423</v>
       </c>
       <c r="Z31" s="53">
-        <v>757</v>
+        <v>109474</v>
       </c>
       <c r="AA31" s="55">
-        <v>92</v>
+        <v>12563</v>
       </c>
       <c r="AB31" s="57">
-        <v>665</v>
+        <v>96911</v>
       </c>
       <c r="AC31" s="59">
-        <v>850</v>
+        <v>115093</v>
       </c>
       <c r="AD31" s="61">
-        <v>1280</v>
+        <v>184587</v>
       </c>
       <c r="AE31" s="63">
-        <v>-430</v>
+        <v>-69494</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4880,16 +4880,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>148</v>
+        <v>20645</v>
       </c>
       <c r="AJ31" s="73">
-        <v>164</v>
+        <v>23070</v>
       </c>
       <c r="AK31" s="75">
-        <v>-16</v>
+        <v>-2426</v>
       </c>
       <c r="AL31" s="77">
-        <v>28404</v>
+        <v>3970006</v>
       </c>
     </row>
     <row r="32">
@@ -4897,94 +4897,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="6">
-        <v>394</v>
+        <v>63172</v>
       </c>
       <c r="C32" s="8">
-        <v>1557</v>
+        <v>255158</v>
       </c>
       <c r="D32" s="10">
-        <v>-1163</v>
+        <v>-191986</v>
       </c>
       <c r="E32" s="12">
-        <v>27801</v>
+        <v>4367348</v>
       </c>
       <c r="F32" s="14">
-        <v>26378</v>
+        <v>4124426</v>
       </c>
       <c r="G32" s="16">
-        <v>1423</v>
+        <v>242922</v>
       </c>
       <c r="H32" s="18">
-        <v>382</v>
+        <v>59571</v>
       </c>
       <c r="I32" s="20">
-        <v>540</v>
+        <v>91890</v>
       </c>
       <c r="J32" s="22">
-        <v>-158</v>
+        <v>-32319</v>
       </c>
       <c r="K32" s="24">
-        <v>22</v>
+        <v>3437</v>
       </c>
       <c r="L32" s="26">
-        <v>170</v>
+        <v>28168</v>
       </c>
       <c r="M32" s="28">
-        <v>-148</v>
+        <v>-24732</v>
       </c>
       <c r="N32" s="30">
-        <v>47</v>
+        <v>7839</v>
       </c>
       <c r="O32" s="32">
-        <v>19</v>
+        <v>2897</v>
       </c>
       <c r="P32" s="34">
-        <v>28</v>
+        <v>4942</v>
       </c>
       <c r="Q32" s="36">
-        <v>64</v>
+        <v>10173</v>
       </c>
       <c r="R32" s="38">
-        <v>141</v>
+        <v>24559</v>
       </c>
       <c r="S32" s="40">
-        <v>-77</v>
+        <v>-14385</v>
       </c>
       <c r="T32" s="42">
-        <v>2</v>
+        <v>364</v>
       </c>
       <c r="U32" s="44">
-        <v>4</v>
+        <v>698</v>
       </c>
       <c r="V32" s="46">
-        <v>-2</v>
+        <v>-334</v>
       </c>
       <c r="W32" s="48">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="X32" s="50">
-        <v>45</v>
+        <v>7490</v>
       </c>
       <c r="Y32" s="52">
-        <v>-44</v>
+        <v>-7407</v>
       </c>
       <c r="Z32" s="54">
-        <v>244</v>
+        <v>37421</v>
       </c>
       <c r="AA32" s="56">
-        <v>16</v>
+        <v>2370</v>
       </c>
       <c r="AB32" s="58">
-        <v>228</v>
+        <v>35051</v>
       </c>
       <c r="AC32" s="60">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="AD32" s="62">
-        <v>145</v>
+        <v>25708</v>
       </c>
       <c r="AE32" s="64">
-        <v>-143</v>
+        <v>-25454</v>
       </c>
       <c r="AF32" s="66">
         <v>0</v>
@@ -4996,16 +4996,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="72">
-        <v>100</v>
+        <v>15538</v>
       </c>
       <c r="AJ32" s="74">
-        <v>203</v>
+        <v>34156</v>
       </c>
       <c r="AK32" s="76">
-        <v>-103</v>
+        <v>-18617</v>
       </c>
       <c r="AL32" s="78">
-        <v>28677</v>
+        <v>4505629</v>
       </c>
     </row>
   </sheetData>
